--- a/assets/Codenames_Worterliste_Deutsch.xlsx
+++ b/assets/Codenames_Worterliste_Deutsch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaschmid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaschmid\Documents\visionary\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20942969-6724-4E3A-962A-EBFC8C571261}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E72814D-7833-4652-A921-48406E63322E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,9 +609,6 @@
     <t>Drucker</t>
   </si>
   <si>
-    <t>Ketschup</t>
-  </si>
-  <si>
     <t>Blinker</t>
   </si>
   <si>
@@ -1023,9 +1020,6 @@
     <t>Film</t>
   </si>
   <si>
-    <t>Storm</t>
-  </si>
-  <si>
     <t>Absatz</t>
   </si>
   <si>
@@ -1216,6 +1210,12 @@
   </si>
   <si>
     <t>Pension</t>
+  </si>
+  <si>
+    <t>Strom</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:A400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,512 +2095,512 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
@@ -3095,512 +3095,512 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
